--- a/src/test/resources/testdata/excels/MasterTestData.xlsx
+++ b/src/test/resources/testdata/excels/MasterTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eccd6de18900521a/Desktop/FLM testing/POM/FrameworkPOM-master/src/test/resources/testdata/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{2CC5B2EA-2537-4007-ABD4-67673B59F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D80CCDB-FE2B-4131-8E74-26FCD7A67C71}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{2CC5B2EA-2537-4007-ABD4-67673B59F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{435FD138-A5BD-4544-B14D-22F3DC38A764}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>TC101</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>03/02/2026</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Hotel Creek</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>14/02/2026</t>
+  </si>
+  <si>
+    <t>15/02/2026</t>
   </si>
 </sst>
 </file>
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC914BC-115C-4E99-A655-A098063134BC}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -716,6 +731,58 @@
       </c>
       <c r="H11" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/excels/MasterTestData.xlsx
+++ b/src/test/resources/testdata/excels/MasterTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eccd6de18900521a/Desktop/FLM testing/POM/FrameworkPOM-master/src/test/resources/testdata/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{2CC5B2EA-2537-4007-ABD4-67673B59F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{435FD138-A5BD-4544-B14D-22F3DC38A764}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{2CC5B2EA-2537-4007-ABD4-67673B59F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C64B2454-8B07-426E-9C48-6AF88FD38C64}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>TC101</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>15/02/2026</t>
+  </si>
+  <si>
+    <t>27/02/2026</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>28/02/2026</t>
   </si>
 </sst>
 </file>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC914BC-115C-4E99-A655-A098063134BC}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -783,6 +792,58 @@
       </c>
       <c r="H14" s="4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/excels/MasterTestData.xlsx
+++ b/src/test/resources/testdata/excels/MasterTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eccd6de18900521a/Desktop/FLM testing/POM/FrameworkPOM-master/src/test/resources/testdata/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{2CC5B2EA-2537-4007-ABD4-67673B59F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C64B2454-8B07-426E-9C48-6AF88FD38C64}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{2CC5B2EA-2537-4007-ABD4-67673B59F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED7B2F3-6996-4F51-8909-80EA89650355}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01F410BB-4CDF-4E65-BF55-31489716C62E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>TC101</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>28/02/2026</t>
+  </si>
+  <si>
+    <t>Deluxe</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>01/03/2026</t>
+  </si>
+  <si>
+    <t>04/03/2026</t>
+  </si>
+  <si>
+    <t>TC08</t>
   </si>
 </sst>
 </file>
@@ -545,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC914BC-115C-4E99-A655-A098063134BC}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -844,6 +859,110 @@
       </c>
       <c r="H17" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
